--- a/aggregated_output/PITTSBURG_aggregated.xlsx
+++ b/aggregated_output/PITTSBURG_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be addressed. Given Abi's preference for familiar methods and comprehensive information processing style, they would likely not consider this page as a step toward finding a list of issues. Additionally, Abi's low computer self-efficacy means they might not feel confident navigating through the project files to find the issues section.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. ABI is looking for a list of issues or where issues are located. The current page does not explicitly indicate where to find issues or provide a direct link to them. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately recognize this page as a step toward finding issues. The lack of clear direction or indication about issues on this page would likely deter ABI from considering this as a step toward achieving the overall use case.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page with various files and information about the project. There is no clear indication or section specifically labeled for "issues" or "bugs" that would guide Abi to find a list of issues. Given Abi's preference for familiar methods and comprehensive information processing style, they might not immediately think to look here for issues. Additionally, Abi's low computer self-efficacy might make them hesitant to explore unfamiliar sections without clear guidance.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. ABI is looking to find a list of issues or where issues are located. This page does not explicitly indicate where to find issues or provide a list of issues. ABI, who prefers to use familiar methods and needs comprehensive information, might not immediately think that this page is a step toward finding issues. Additionally, ABI's low computer self-efficacy might make them hesitant to explore further without clear guidance.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a comprehensive overview of the repository, including various files and documentation. ABI, who prefers to gather information comprehensively, would likely consider this a step toward finding issues to work on. The presence of a "Contribute.md" file and other documentation suggests that this page is a good starting point for understanding the project and finding relevant issues.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be worked on. Given Abi's preference for familiar methods and comprehensive information processing style, they would likely not consider this page as a step toward finding a list of issues. Additionally, Abi's low computer self-efficacy means they might not feel confident navigating through the project files to find issues.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+Why: The page shown is a repository view with a list of files and some information about the project. ABI is looking to find a list of issues or where issues are located. This page does not explicitly indicate where to find issues or provide a list of issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately recognize this page as a step toward finding issues. The lack of clear direction or indication about issues on this page would likely deter ABI from considering this as a step toward achieving the overall use case.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be addressed. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding a list of issues. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the project files to find the issues.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be worked on. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding a list of issues. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the project files to find the issues.</t>
+Why: The page shown is a repository view with a list of files and some information about the project. ABI is looking for a list of issues or where issues are located. This page does not explicitly indicate where to find issues or provide a list of issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately recognize this page as a step toward finding issues. The lack of clear direction or indication about issues on this page would likely deter ABI from considering this as a step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather all available information before making decisions, and scrolling down is a natural action to see if more relevant information is available further down the page. This action does not require high computer self-efficacy or involve any risk, making it a comfortable step for Abi.</t>
+Why: Scrolling down the webpage aligns with ABI's information processing style, which involves gathering comprehensive information before taking action. The page contains a lot of information, and scrolling down is a natural action to see if there is more relevant information available. ABI would likely know to scroll down to explore the page further and gather more details that might help in finding the list of issues or where issues are located.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather information comprehensively before acting, and scrolling down is a natural action to gather more information. The page layout suggests that more information might be available below, so Abi would likely know to scroll down to see if there are additional sections or details that could help them find the list of issues.</t>
+Why: Scrolling down aligns with ABI's information processing style, as it allows them to gather more information comprehensively. The page is structured in a way that encourages scrolling to see more content, and ABI would likely understand that scrolling down could reveal additional relevant information.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather information comprehensively before acting, and scrolling down is a natural action to explore more content on the page. The page layout suggests that more information might be available below, so Abi would likely know to scroll down to find additional details.</t>
+Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. The page contains a lot of information, and scrolling down will allow ABI to gather more details about the project, which is necessary for understanding where to find the list of issues. The presence of various sections and documentation suggests that more relevant information might be found by scrolling.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. She is likely to scroll down to gather more information and understand the context better. The page is straightforward and does not present any immediate barriers to scrolling, so Abi will likely take this action to see if more relevant information appears further down the page.</t>
+Why: Scrolling down the webpage aligns with ABI's information processing style, which involves gathering comprehensive information. The page contains a lot of text and sections that might provide more context or relevant information about the project. ABI would likely scroll down to see if there is any additional information that could help in finding the list of issues or where issues are located.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. She is likely to scroll down to gather more information and understand the content of the page better. This action does not require high computer self-efficacy or involve any risk, making it a suitable step for Abi to take.</t>
+Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. ABI tends to gather all available information before taking action. Scrolling down is a natural step to see if there is more relevant information further down the page that might help in finding the list of issues or where issues are located. The page is not overwhelming and provides a structured view, which would encourage ABI to scroll down to gather more information.</t>
         </is>
       </c>
     </row>
@@ -512,72 +512,72 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, Abi will not find any information related to issues or where to find them. The page primarily contains project details, files, and a brief description of the project. There is no section or indication that points to a list of issues. Given Abi's comprehensive information processing style, they would not feel they are making progress toward their goal of finding issues. Additionally, Abi's low computer self-efficacy means they might feel uncertain about what to do next, as the page does not provide clear guidance on finding issues.</t>
+Why: After scrolling down the webpage, ABI will not find a list of issues or clear directions on where to find them. The page contains information about the project, technologies used, and contact details, but it does not provide any information about issues or where to find them. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, will not know if they are making progress toward their goal of finding issues. The lack of relevant information about issues on this page will likely leave ABI uncertain about their progress.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, Abi will not find any additional information or sections specifically related to issues or bugs. The page primarily contains project details, files, and a description of the project. There is no clear indication or section for issues, which means Abi will not know if they are making progress toward their goal of finding a list of issues. Given Abi's comprehensive information processing style and low computer self-efficacy, the lack of clear guidance or relevant information will likely leave them uncertain and frustrated.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, ABI will not find a list of issues or clear instructions on where to find them. The information provided is about the project, technologies used, and contact points, but it does not directly address the subgoal of finding issues for a newcomer to work on. ABI, who prefers comprehensive information and has low computer self-efficacy, might feel uncertain about whether they are making progress toward their goal and may not feel confident that they have done the right thing.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down, ABI will find additional information about the project, including details about FLOSScoach, technologies used, and contact points. However, this information does not directly provide a list of issues or indicate where to find them. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not feel that they are making progress toward finding the list of issues. The page lacks clear guidance or direct links to the issues, which could leave ABI uncertain about the next steps.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, Abi will not find any information related to issues or where to find them. The page primarily contains project details, files, and a brief description of the project. There is no section or indication of issues or bugs that need to be worked on. This lack of relevant information would make Abi feel that they are not making progress toward their goal, and they might feel uncertain about what to do next due to their low computer self-efficacy.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, Abi will not find any additional information related to finding a list of issues. The page primarily contains project details, files, and a brief description of the project. There is no section or indication of where to find issues. This lack of relevant information will make Abi feel that she is not making progress toward her goal. Given her motivation to accomplish tasks efficiently and her comprehensive information processing style, she will likely feel frustrated and uncertain about what to do next. Additionally, her low computer self-efficacy may further discourage her from continuing to search for the issues.</t>
+Why: After scrolling down the webpage, ABI will not find a list of issues or clear directions on where to find them. The page contains information about the project, technologies used, and contact details, but it does not provide any information about issues or where to find them. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, will not feel that they have made progress toward their goal of finding issues. The lack of relevant information about issues will likely leave ABI feeling uncertain and unmotivated.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, Abi will still be on the same project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be worked on. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not feel that she is making progress toward finding a list of issues. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the project files to find the issues.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, ABI will not find a list of issues or clear directions on where to find issues. The information provided at the bottom of the page is about the FLOSScoach project, technologies used, and contact information, but it does not directly address the subgoal of finding issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, will not feel that they have made progress toward their goal of finding issues. The lack of relevant information about issues will likely leave ABI uncertain about what to do next.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The issue icon on the left side of the page is clearly labeled and visually distinct, making it relatively easy for ABI to identify. Given ABI's comprehensive information processing style, they are likely to notice the icon while scanning the page. Additionally, ABI's preference for process-oriented learning means they are likely to follow visual cues and labels to navigate. Clicking on the issue icon is a logical step toward finding the list of issues, and the page provides enough context for ABI to understand that this action will likely lead them to the information they need.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The issue icon on the left side is clearly labeled and visually distinct, making it easy for ABI to identify. Given ABI's comprehensive information processing style, they are likely to notice the icon while scanning the page. Additionally, clicking on a clearly labeled icon aligns with ABI's preference for process-oriented learning, as it provides a straightforward action to take. Therefore, ABI will likely know what to do at this step and feel confident in taking this action.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left side is not explicitly labeled, and Abi might not be familiar with the icon's meaning due to their low computer self-efficacy. Abi prefers process-oriented learning and clear instructions, and the page does not provide any guidance or indication that clicking the icon will lead to the list of issues. This lack of clarity and explicit instruction might make Abi hesitant to click the icon, as they are risk-averse and prefer predictable actions.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left side is not explicitly labeled, and there is no clear indication on the page about what it does. Given Abi's low computer self-efficacy, they might be hesitant to click on an unfamiliar icon without clear guidance. Additionally, Abi prefers process-oriented learning and might not feel confident in clicking on an icon without knowing its purpose. The page does not provide enough information for Abi to confidently take this action.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left side is not explicitly labeled, and Abi might not be familiar with the icon's meaning due to their low computer self-efficacy. Additionally, Abi prefers process-oriented learning and might not feel confident clicking on an unfamiliar icon without clear instructions or labels indicating that it will lead to the list of issues. This uncertainty could prevent Abi from taking this action.</t>
+Why: The issue icon on the left side is not explicitly labeled, and ABI, who has low confidence in unfamiliar computing tasks, might not immediately recognize it as the place to find issues. Additionally, ABI prefers process-oriented learning and clear instructions, which are not provided on this page. Without clear guidance or labeling, ABI might be hesitant to click on the icon, fearing it might not lead to the desired information.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The issue icon on the left side of the page is clearly labeled and visually distinct, making it relatively easy for Abi to identify. Given her comprehensive information processing style, Abi is likely to notice the icon and understand that clicking it could lead her to the list of issues. The page is straightforward and does not present any immediate barriers to clicking the icon, so Abi will likely take this action to see if it leads her to the relevant information.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The issue icon on the left side is clearly labeled and visually distinct, making it relatively easy for ABI to identify. Given ABI's comprehensive information processing style, they are likely to notice the icon while scanning the page. Additionally, the icon is a common feature in repositories for tracking issues, which might be familiar to ABI. Therefore, ABI will likely know to click on the issue icon to find a list of issues or where issues are located.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left side is not explicitly labeled, and there is no clear indication on the page about what it does. Given Abi's low computer self-efficacy, she might not feel confident clicking on an icon without knowing its purpose. Additionally, Abi prefers process-oriented learning and might not be comfortable with tinkering or trying out features without clear instructions. Therefore, she might not know what to do at this step and may hesitate to take this action.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The issue icon on the left side is clearly labeled and visually distinct, making it easy for ABI to identify. Given ABI's comprehensive information processing style, they are likely to notice the icon while scanning the page. Additionally, the icon is a standard feature in many repository interfaces, which aligns with ABI's preference for process-oriented learning. Clicking on the issue icon is a logical step toward finding a list of issues, and the page provides enough context for ABI to understand that this action is relevant to their goal.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the issue icon, Abi will land on a page that clearly lists issues, complete with titles, descriptions, and other relevant details. This page directly aligns with Abi's goal of finding a list of issues to work on. The comprehensive list and detailed information provided will help Abi feel confident that they are making progress toward their goal. The clear layout and relevant information cater to Abi's comprehensive information processing style, making it easy for them to understand that they have done the right thing and are on the right track.</t>
+Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists the issues, which is exactly what they are looking for. The page is well-organized, showing open, closed, and all issues, along with relevant details such as titles, creation dates, and labels. This aligns with ABI's motivation to find an issue to work on and their comprehensive information processing style. The clear presentation of issues will help ABI know that they did the right thing and are making progress toward their goal. The page provides all the necessary information ABI needs to proceed.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists the issues, which directly aligns with their subgoal of finding a list of issues or where issues are. The page is well-organized, showing open, closed, and all issues, which provides comprehensive information. This will help ABI feel confident that they have done the right thing and are making progress toward their goal. The clear presentation of issues will also support ABI's motivation to accomplish their task efficiently.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists the issues, including their titles, creation dates, and statuses. This page provides a comprehensive overview of the issues, which aligns with ABI's preference for gathering detailed information. The clear presentation of issues will help ABI understand that they have made progress toward their goal of finding an issue to work on. The information is well-organized and directly relevant to the task, making it easy for ABI to recognize that they are on the right track.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists the issues, including their titles, creation dates, and statuses. This page provides comprehensive information about the issues, which aligns with ABI's information processing style. The clear presentation of issues will help ABI understand that they have made progress toward their goal of finding an issue to work on. The detailed list of issues will also provide ABI with the necessary information to choose an appropriate issue to work on, thus confirming that they did the right thing.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the issue icon, Abi will land on a page that clearly lists issues with relevant details such as titles, importance, and status. This page provides comprehensive information that aligns with Abi's information processing style, allowing them to see a list of issues and make progress toward their goal. The clear layout and detailed information will help Abi understand that they are on the right track and have found the list of issues they were looking for.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the issue icon, Abi will land on a page that clearly lists issues with relevant details such as titles, importance, and status. This page provides comprehensive information about the issues, which aligns with Abi's information processing style. The clear presentation of issues will help Abi understand that they are making progress toward their goal of finding an issue to work on. The detailed list will also motivate Abi as it directly addresses their goal.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the issue icon, Abi will be directed to a page that clearly lists various issues, along with details such as the issue title, importance, and status. This page provides comprehensive information that aligns with Abi's information processing style, allowing her to understand the context and specifics of each issue. The clear presentation of issues will make Abi feel that she has made progress toward her goal of finding an issue to work on. The page is well-organized and provides all the necessary information, which will help Abi feel confident that she did the right thing.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the issue icon, Abi will land on a page that clearly lists issues with relevant details such as titles, importance, and status. This page directly aligns with her goal of finding a list of issues to work on. The information is presented in a structured and comprehensive manner, which suits Abi's information processing style. She will know that she did the right thing and is making progress toward her goal, as the page provides all the necessary information about the issues.</t>
+Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists the issues. The page is well-organized, showing open, closed, and all issues, which aligns with ABI's comprehensive information processing style. The presence of a list of issues directly addresses ABI's subgoal of finding issues to work on. The clear labeling and categorization of issues will help ABI understand that they have made progress toward their goal and provide the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -623,35 +623,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with detailed descriptions, making it evident that selecting an issue to work on is a logical next step. Abi's motivation to accomplish tasks and their comprehensive information processing style will lead them to consider this as a necessary step toward achieving the overall use case. The structured and detailed presentation of issues aligns well with Abi's need for comprehensive information, making it clear that selecting an issue is part of the process.</t>
+Why: The page clearly lists various issues with relevant details such as titles, creation dates, and labels. ABI, who is motivated to find an issue to work on, will recognize that selecting an issue from this list is a logical step toward achieving their overall use case. The comprehensive presentation of information aligns with ABI's information processing style, making it clear that this is the next step in the process.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with details such as titles, importance, and status. Given Abi's motivation to find an issue to work on and their comprehensive information processing style, they would recognize that selecting an issue from this list is a logical step toward achieving their overall use case. The detailed and organized presentation of issues aligns with Abi's need for comprehensive information, making it clear that this is the next step in the process.</t>
+Why: Selecting an issue to work on is a logical next step after finding a list of issues, which directly aligns with ABI's overall use case of finding an issue for a newcomer to work on. The page provides a clear list of issues, making it evident that selecting one is the next action to take. This aligns with ABI's motivation to accomplish their task and their comprehensive information processing style, as they can now review the issues and choose one to work on.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with details such as titles, importance, and status. This aligns with Abi's goal of finding an issue to work on. The comprehensive list of issues provides the necessary information for Abi to select an issue, which is a logical step toward achieving the overall use case. The clear presentation and relevant details will help Abi feel motivated and confident that they are making progress.</t>
+Why: Selecting an issue to work on is a logical next step after finding the list of issues. ABI, who is motivated to accomplish tasks and prefers comprehensive information, would recognize that choosing a specific issue from the list is necessary to proceed with contributing to the project. The page clearly presents the issues, making it evident that selecting one is part of the process toward achieving the overall use case.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with details such as the issue title, importance, and status. This aligns with Abi's motivation to find an issue to work on and her comprehensive information processing style. The organized presentation of issues will help Abi understand that selecting an issue is a logical next step toward achieving her overall goal. The page provides sufficient information for Abi to make an informed decision about which issue to work on.</t>
+Why: The page clearly lists various issues with their titles, creation dates, and statuses, which aligns with ABI's goal of finding an issue to work on. ABI, who prefers comprehensive information, will recognize that selecting an issue from this list is a logical step toward achieving the overall use case of finding an issue to work on. The detailed presentation of issues will help ABI understand that they are making progress toward their goal.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with relevant details such as titles, importance, and status. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would recognize that selecting an issue from this list is a logical step toward achieving her overall goal of finding an issue to work on. The structured presentation of information aligns with her need for a comprehensive understanding before taking action.</t>
+Why: Selecting an issue to work on is a logical next step after finding the list of issues, which aligns with ABI's motivation to accomplish their tasks. The page provides a clear and organized list of issues, which supports ABI's comprehensive information processing style. ABI will recognize that selecting an issue is a necessary step toward achieving the overall use case of finding an issue for a newcomer to work on. The clear presentation of issues will help ABI feel confident that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -659,73 +659,73 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page is well-organized and presents a clear list of issues with relevant details such as titles, creation dates, and labels. ABI, who prefers comprehensive information processing, will find it straightforward to read through the list to gather the necessary information. The layout and structure of the page make it easy for ABI to understand what to do at this step, which is to read through the list to find an issue to work on. The clear presentation aligns with ABI's process-oriented learning style, making the page good enough for ABI to take this action.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page clearly lists the issues with titles and tags, making it straightforward for ABI to understand that they need to read through the list to find an issue to work on. This aligns with ABI's comprehensive information processing style, as they can gather detailed information about each issue before making a decision. The structured presentation of issues supports ABI's preference for process-oriented learning, making it easy for them to take this action.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page provides a clear and detailed list of issues, which aligns well with Abi's comprehensive information processing style. Abi will know to read through the list to gather information about the issues, as the titles and descriptions are prominently displayed and easy to understand. This action is straightforward and does not require high computer self-efficacy or involve any risk, making it a comfortable step for Abi to take. The page is well-organized and provides all the necessary information for Abi to proceed with selecting an issue to work on.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+Why: The page clearly lists the issues with their titles, creation dates, and statuses, making it straightforward for ABI to read through the list. ABI, who prefers to gather comprehensive information, will understand that reading through the list is necessary to select an appropriate issue to work on. The layout and presentation of the issues are clear and organized, providing ABI with the information needed to make an informed decision.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page is well-organized and lists issues with clear titles, importance, and status, making it easy for Abi to read through the list. Given Abi's comprehensive information processing style, they will know to read through the list to gather information before selecting an issue to work on. The detailed presentation of issues aligns with Abi's motivation to find an issue to work on, making it clear that reading through the list is the appropriate next step.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+Why: The page presents a clear and organized list of issues, each with a title, creation date, and status. This layout aligns with ABI's comprehensive information processing style, allowing them to read through the list and gather the necessary information to select an issue. The clear presentation and relevant details will help ABI understand what to do at this step and feel confident in taking the action of reading through the list to find an issue to work on.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page provides a clear and detailed list of issues, including titles, importance, and status. This aligns with Abi's comprehensive information processing style, as they prefer to gather all relevant information before making a decision. The structured presentation of issues will help Abi understand what to do at this step, and the detailed information will motivate them to read through the list to select an issue to work on.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is well-organized and presents a list of issues with clear titles, importance levels, and statuses. This layout aligns with Abi's comprehensive information processing style, allowing her to read through the list and gather the necessary information to make an informed decision. The page provides sufficient context and details for each issue, making it easy for Abi to understand what she needs to do at this step.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page presents a clear and structured list of issues, each with relevant details such as titles, importance, and status. This aligns with Abi's comprehensive information processing style, as she can read through the list to gather the necessary information before making a decision. Additionally, the clear presentation of issues supports her motivation to accomplish tasks efficiently. The page is well-organized and provides the information Abi needs to take this action confidently.</t>
+Why: The page is well-organized and presents a clear list of issues, which aligns with ABI's comprehensive information processing style. ABI will know to read through the list to find an issue to work on, as this is a logical step toward achieving their goal. The page provides sufficient information, such as issue titles, labels, and creation dates, which will help ABI in making an informed decision. The clear presentation and relevant details will guide ABI in taking this action confidently.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After reading through the list, Abi will see detailed descriptions, tags, and other relevant information for each issue. This comprehensive information will help Abi understand the nature of each issue and make an informed decision about which one to work on. The clear and structured presentation of issues aligns with Abi's comprehensive information processing style, and the detailed information provided will make Abi feel confident that they are making progress toward their goal. The page provides all the necessary information for Abi to select an issue, ensuring they know they are on the right track.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides a list of issues, it does not provide detailed information about each issue directly on this page. ABI, who prefers comprehensive information, might not feel confident that they have all the necessary details to select an issue to work on just by reading the titles and brief descriptions. ABI might need to click on individual issues to gather more information, which could be overwhelming given their low computer self-efficacy. Therefore, ABI might not feel certain that they are making progress toward their goal or have all the information they need just by reading through the list on this page.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page provides a clear and detailed list of issues, including titles, importance, and status. As Abi reads through the list, they will be able to gather comprehensive information about each issue, which aligns with their information processing style. The detailed presentation will help Abi understand that they are making progress toward their goal of selecting an issue to work on. The information provided is sufficient for Abi to make an informed decision, ensuring they feel confident that they are on the right track.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. ABI, who prefers comprehensive information, might not feel they have all the necessary details to make an informed decision just by reading the titles. Additionally, ABI's low computer self-efficacy might make them hesitant to click on individual issues to gather more information, fearing they might not be able to navigate back easily or might miss important details. Therefore, ABI might not feel confident that they are making progress toward their goal or have all the information they need.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page provides a detailed list of issues, including titles, importance, and status, which aligns with Abi's comprehensive information processing style. By reading through the list, Abi will be able to gather all the necessary information to select an issue to work on. The clear and structured presentation of issues will help Abi understand that they are making progress toward their goal. The detailed information provided for each issue will ensure that Abi has all the information they need to make an informed decision.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the list of issues is clearly presented, ABI may not immediately know if they are making progress toward their goal just by reading through the list. The titles and brief descriptions might not provide enough context for ABI to determine which issues are suitable for a newcomer. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, might need more detailed information about each issue to feel confident in their choice. The page does not provide immediate, detailed guidance on which issues are appropriate for newcomers, which could leave ABI uncertain about their progress.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and organized list of issues, each with detailed information such as the issue title, importance, and status. This layout aligns with Abi's comprehensive information processing style, allowing her to read through the list and gather the necessary information to make an informed decision. The detailed presentation of issues will help Abi feel that she is making progress toward her goal of selecting an issue to work on. The page provides sufficient context and details for each issue, making it easy for Abi to understand that she did the right thing and is on the right track.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on this page. ABI, who prefers comprehensive information, might not feel they have all the necessary details to select an issue just by reading the titles and brief descriptions. They might need to click on each issue to get more information, which could be overwhelming and time-consuming. Additionally, ABI's low confidence in unfamiliar computing tasks might make them hesitant to proceed without more detailed information readily available. Therefore, ABI might not feel confident that they are making progress toward their goal or have all the information they need.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and structured list of issues, each with relevant details such as titles, importance, and status. This aligns with Abi's comprehensive information processing style, as she can read through the list to gather the necessary information before making a decision. The structured presentation of information supports her motivation to accomplish tasks efficiently. Abi will know that she is making progress toward her goal of selecting an issue to work on, as the page provides all the necessary information about the issues.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on this page. ABI, who prefers comprehensive information, might not feel they have all the necessary details to make an informed decision just by reading the titles and brief descriptions. ABI might need to click on each issue to get more information, which could be overwhelming and might not align with their low confidence in unfamiliar computing tasks. Therefore, ABI might not feel confident that they are making progress toward their goal or that they have all the information they need just by reading through the list.</t>
         </is>
       </c>
     </row>
@@ -733,36 +733,36 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-organized and clearly lists issues with detailed descriptions, making it intuitive for Abi to understand that clicking on an issue will provide more information. The action of clicking on an issue is straightforward and does not require high computer self-efficacy. Additionally, the comprehensive information provided on the page aligns with Abi's information processing style, making it clear that selecting an issue is the next logical step. The page design and layout support Abi in knowing what to do at this step.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page is well-organized and presents a clear list of issues with relevant details such as titles, creation dates, and labels. ABI, who prefers comprehensive information processing, will find it straightforward to read through the list to gather the necessary information. The layout and structure of the page make it easy for ABI to understand what to do at this step, which is to read through the list to find an issue to work on. The clear presentation aligns with ABI's process-oriented learning style, making the page good enough for ABI to take this action.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page clearly lists the issues with clickable titles, making it intuitive for ABI to understand that they need to click on an issue to get more details. This aligns with ABI's comprehensive information processing style, as they can gather more detailed information about each issue by clicking on it. The structured presentation of issues supports ABI's preference for process-oriented learning, making it easy for them to take this action. The clickable nature of the issue titles provides a clear next step, so ABI will know what to do at this step.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists the issues, and each issue is presented as a clickable item. ABI, who is motivated to accomplish tasks and prefers comprehensive information, will understand that clicking on an issue will provide more details about it. The layout and presentation of the issues make it evident that selecting an issue is the next step in the process. The action of clicking on an issue is straightforward and aligns with ABI's goal of finding an issue to work on.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page clearly lists issues with clickable titles, which is a common and intuitive design pattern for selecting items. Given Abi's comprehensive information processing style, they will understand that clicking on an issue title will provide more details about that issue. The page layout and design make it clear that clicking on an issue is the next logical step in selecting an issue to work on, aligning with Abi's motivation to find and work on an issue.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+Why: The page clearly lists the issues with clickable titles, which is a common and intuitive design for issue tracking systems. ABI, who prefers comprehensive information, will likely understand that clicking on an issue title will provide more detailed information about that issue. The clear and organized presentation of the issues will help ABI feel confident in taking the action of selecting or clicking on an issue to gather more information, making progress toward their goal of finding an issue to work on.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page provides a clear and detailed list of issues, each with a clickable title. This aligns with Abi's comprehensive information processing style, as they can read through the list and select an issue that interests them. The clickable titles are intuitive and indicate that more information about the issue can be accessed by clicking on them. This clear and structured presentation will help Abi understand what to do at this step and feel confident in taking the action to select an issue.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is well-organized and presents a list of issues with clear titles, importance levels, and statuses. This layout aligns with Abi's comprehensive information processing style, allowing her to read through the list and gather the necessary information to make an informed decision. The detailed presentation of issues will help Abi feel that she is making progress toward her goal of selecting an issue to work on. The page provides sufficient context and details for each issue, making it easy for Abi to understand that she did the right thing and is on the right track.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page presents a clear and structured list of issues, each with relevant details such as titles, importance, and status. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she will understand that clicking on an issue will provide more detailed information about it. The page is well-organized and intuitive, making it easy for Abi to know what to do at this step and take the action confidently.</t>
+Why: The page is well-organized and presents a clear list of issues, which aligns with ABI's comprehensive information processing style. The issues are displayed with titles and labels, making it easy for ABI to understand that clicking on an issue will provide more detailed information. Given ABI's motivation to accomplish their tasks, they will recognize that selecting or clicking on an issue is a necessary step toward achieving their goal of finding an issue to work on. The clear presentation and relevant details will guide ABI in taking this action confidently.</t>
         </is>
       </c>
     </row>
@@ -771,35 +771,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page that provides some information about the issue, but it is not comprehensive. The page lacks detailed descriptions, steps to reproduce, or any specific information about the issue's context. Given Abi's comprehensive information processing style, they might not feel they have all the necessary information to understand the issue fully. Additionally, the page layout might be overwhelming or confusing for someone with low computer self-efficacy, as it includes various sections and options that are not immediately clear. Abi might not feel confident that they are making progress toward their goal due to the lack of detailed information and clear guidance.</t>
+Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page shows the issue title, status, creation date, and a brief description, but it lacks detailed information that ABI might need to understand the issue fully. ABI, who prefers comprehensive information, might not feel confident that they have all the necessary details to proceed. Additionally, the lack of detailed guidance or context might make ABI, who has low computer self-efficacy, uncertain about whether they are making progress toward their goal. The page does not provide enough information for ABI to feel assured that they did the right thing and have all the information they need.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page with limited information about the issue. The page does not provide comprehensive details about the issue, such as a detailed description, steps to reproduce, or any relevant context. Given Abi's comprehensive information processing style, they will not feel confident that they have all the information they need to understand the issue fully. Additionally, Abi's low computer self-efficacy might make them hesitant to proceed without clear and detailed information, leaving them uncertain about whether they are making progress toward their goal.</t>
+Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page does not provide comprehensive details that ABI might need to understand the issue fully and decide if it is suitable for a newcomer. ABI, who prefers comprehensive information, might not feel they have all the necessary details to make an informed decision. Additionally, ABI's low computer self-efficacy might make them hesitant to proceed without clear and detailed information, leading to uncertainty about whether they are making progress toward their goal.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page with limited information about the issue. The page lacks detailed descriptions, steps to reproduce, or any context that would help Abi understand the issue fully. Given Abi's comprehensive information processing style, they would likely feel that they do not have enough information to proceed. Additionally, Abi's low computer self-efficacy might make them feel uncertain about what to do next without clear guidance or detailed information. This could hinder their confidence in knowing that they did the right thing and are making progress toward their goal.</t>
+Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page shows the issue's title, creation date, and some basic details, but it lacks comprehensive information that ABI might need to determine if this is the right issue to work on. ABI, who prefers detailed information and has low confidence in unfamiliar tasks, might not feel that they have made significant progress toward their goal. The page does not provide enough context or guidance on what steps to take next, which could leave ABI feeling uncertain about their progress.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page that provides some information about the issue, but it is not comprehensive. The page lacks detailed descriptions, steps to reproduce, or any context that would help Abi understand the issue fully. Given Abi's comprehensive information processing style, she would likely feel that the information provided is insufficient to make progress toward her goal. Additionally, due to her low computer self-efficacy, she might feel uncertain about what to do next or how to proceed with the limited information available. This could lead to frustration and a sense that she is not making progress.</t>
+Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page shows the issue title, status, creation date, and a brief description, but it lacks detailed information that ABI might need to understand the issue fully. ABI, who prefers comprehensive information, might not feel they have all the necessary details to determine if this is the right issue to work on. Additionally, the lack of detailed information might make ABI, who has low confidence in unfamiliar computing tasks, feel uncertain about their progress toward their goal. Therefore, ABI might not feel confident that they did the right thing or have all the information they need.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page with limited information about the issue. The page lacks detailed descriptions, steps to reproduce, or any context that would help Abi understand the issue comprehensively. Given Abi's comprehensive information processing style, she would need more detailed information to feel confident that she is making progress toward her goal. Additionally, due to her low computer self-efficacy, the lack of detailed information might make her feel uncertain about whether she did the right thing and is on the right track.</t>
+Why: After clicking on an issue, ABI lands on a page with detailed information about the issue. However, the page lacks comprehensive details that ABI might need to feel confident in selecting the issue to work on. The description is minimal ("test test test"), and there are no labels, milestones, or assignees, which are critical pieces of information for understanding the context and requirements of the issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not feel they have all the necessary details to proceed. This lack of detailed information might leave ABI uncertain about whether they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
